--- a/signale.xlsx
+++ b/signale.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -28,12 +28,15 @@
     <t xml:space="preserve">Signalname</t>
   </si>
   <si>
+    <t xml:space="preserve">Structname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Datatype</t>
   </si>
   <si>
-    <t xml:space="preserve">Size [Bytes]</t>
-  </si>
-  <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
@@ -61,67 +64,25 @@
     <t xml:space="preserve">teststruct.a</t>
   </si>
   <si>
+    <t xml:space="preserve">Teststruct</t>
+  </si>
+  <si>
     <t xml:space="preserve">teststruct.b</t>
   </si>
   <si>
     <t xml:space="preserve">teststruct.c</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mainstruct.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">teststruct2.a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mainstruct.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">teststruct2.b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mainstruct.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">teststruct2.c</t>
-    </r>
+    <t xml:space="preserve">mainstruct.teststruct2.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainstruct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mainstruct.teststruct2.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mainstruct.teststruct2.c</t>
   </si>
 </sst>
 </file>
@@ -131,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -152,11 +113,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,10 +179,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -249,19 +205,19 @@
       <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>8</v>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,13 +225,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>4</v>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,13 +236,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>4</v>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,13 +247,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,13 +258,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,13 +272,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,13 +286,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,13 +300,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,13 +314,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,13 +328,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
